--- a/data/course.xlsx
+++ b/data/course.xlsx
@@ -59,7 +59,11 @@
     <t>Geology</t>
   </si>
   <si>
-    <t xml:space="preserve">course_id </t>
+    <t>dept_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -67,11 +71,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dept_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>course_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,12 +407,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="34.21875" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
@@ -420,16 +419,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
